--- a/peajes.xlsx
+++ b/peajes.xlsx
@@ -33,9 +33,6 @@
     <t>Cartagena</t>
   </si>
   <si>
-    <t>Caldas</t>
-  </si>
-  <si>
     <t>Monteria</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Costo Peajes</t>
+  </si>
+  <si>
+    <t>Manizales</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -424,34 +424,34 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -477,7 +477,7 @@
         <v>87700</v>
       </c>
       <c r="H2" s="1">
-        <v>57500</v>
+        <v>39700</v>
       </c>
       <c r="I2" s="1">
         <v>57500</v>
@@ -527,7 +527,7 @@
         <v>68700</v>
       </c>
       <c r="H3" s="1">
-        <v>112400</v>
+        <v>117500</v>
       </c>
       <c r="I3" s="1">
         <v>112400</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>55400</v>
@@ -577,11 +577,10 @@
         <v>42600</v>
       </c>
       <c r="H4" s="1">
+        <v>45400</v>
+      </c>
+      <c r="I4" s="1">
         <v>74800</v>
-      </c>
-      <c r="I4" s="1">
-        <f>I3</f>
-        <v>112400</v>
       </c>
       <c r="J4" s="1">
         <v>137900</v>
@@ -630,10 +629,9 @@
         <v>15100</v>
       </c>
       <c r="H5" s="1">
-        <v>70100</v>
+        <v>51300</v>
       </c>
       <c r="I5" s="1">
-        <f>H5</f>
         <v>70100</v>
       </c>
       <c r="J5" s="1">
@@ -683,10 +681,9 @@
         <v>57000</v>
       </c>
       <c r="H6" s="1">
-        <v>107000</v>
+        <v>136400</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I8" si="2">H6</f>
         <v>107000</v>
       </c>
       <c r="J6" s="1">
@@ -715,7 +712,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>87700</v>
@@ -736,10 +733,9 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>85200</v>
+        <v>66400</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
         <v>85200</v>
       </c>
       <c r="J7" s="1">
@@ -768,60 +764,59 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>57500</v>
+        <v>39700</v>
       </c>
       <c r="C8" s="1">
-        <v>112400</v>
+        <v>117500</v>
       </c>
       <c r="D8" s="1">
-        <v>74800</v>
+        <v>45400</v>
       </c>
       <c r="E8" s="1">
-        <v>70100</v>
+        <v>51300</v>
       </c>
       <c r="F8" s="1">
-        <v>107000</v>
+        <v>136400</v>
       </c>
       <c r="G8" s="1">
-        <v>85200</v>
+        <v>66400</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="J8" s="1">
-        <v>90700</v>
+        <v>106100</v>
       </c>
       <c r="K8" s="1">
-        <v>93600</v>
+        <v>75800</v>
       </c>
       <c r="L8" s="1">
-        <v>42200</v>
+        <v>24400</v>
       </c>
       <c r="M8" s="1">
-        <v>122500</v>
+        <v>104700</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>112400</v>
+        <v>117500</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>93600</v>
+        <v>75800</v>
       </c>
       <c r="P8" s="1">
-        <v>97500</v>
+        <v>78700</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>57500</v>
@@ -830,61 +825,48 @@
         <v>112400</v>
       </c>
       <c r="D9" s="1">
-        <f>D8</f>
         <v>74800</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:P9" si="3">E8</f>
         <v>70100</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
         <v>107000</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
         <v>85200</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
         <v>90700</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
         <v>93600</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
         <v>42200</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
         <v>122500</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
         <v>112400</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
         <v>93600</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
         <v>97500</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>134200</v>
@@ -905,10 +887,9 @@
         <v>67200</v>
       </c>
       <c r="H10" s="1">
-        <v>90700</v>
+        <v>106100</v>
       </c>
       <c r="I10" s="1">
-        <f>H10</f>
         <v>90700</v>
       </c>
       <c r="J10" s="1">
@@ -937,7 +918,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>49600</v>
@@ -958,10 +939,9 @@
         <v>142200</v>
       </c>
       <c r="H11" s="1">
-        <v>93600</v>
+        <v>75800</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="4">H11</f>
         <v>93600</v>
       </c>
       <c r="J11" s="1">
@@ -977,11 +957,11 @@
         <v>38600</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N13" si="5">C11</f>
+        <f t="shared" ref="N11:N13" si="2">C11</f>
         <v>193300</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O13" si="6">K11</f>
+        <f t="shared" ref="O11:O13" si="3">K11</f>
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -990,7 +970,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>15300</v>
@@ -1011,10 +991,9 @@
         <v>90800</v>
       </c>
       <c r="H12" s="1">
-        <v>42200</v>
+        <v>24400</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
         <v>42200</v>
       </c>
       <c r="J12" s="1">
@@ -1030,11 +1009,11 @@
         <v>80300</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>141900</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>51400</v>
       </c>
       <c r="P12" s="1">
@@ -1043,7 +1022,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>78500</v>
@@ -1064,10 +1043,9 @@
         <v>171100</v>
       </c>
       <c r="H13" s="1">
-        <v>122500</v>
+        <v>104700</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
         <v>122500</v>
       </c>
       <c r="J13" s="1">
@@ -1083,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>222200</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>38600</v>
       </c>
       <c r="P13" s="1">
@@ -1096,7 +1074,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>138800</v>
@@ -1109,57 +1087,56 @@
         <v>142500</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:P14" si="7">E3</f>
+        <f t="shared" ref="E14:P14" si="4">E3</f>
         <v>88100</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>33500</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>68700</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>117500</v>
+      </c>
+      <c r="I14" s="1">
         <v>112400</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="7"/>
-        <v>112400</v>
-      </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>41000</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>193300</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>141900</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>222200</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>193300</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>49300</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>49600</v>
@@ -1172,57 +1149,56 @@
         <v>104900</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:P15" si="8">E11</f>
+        <f t="shared" ref="E15:P15" si="5">E11</f>
         <v>127100</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>200600</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>142200</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>75800</v>
+      </c>
+      <c r="I15" s="1">
         <v>93600</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="8"/>
-        <v>93600</v>
-      </c>
       <c r="J15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>170300</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>51400</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>38600</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>193300</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>154500</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>100000</v>
@@ -1243,10 +1219,9 @@
         <v>29900</v>
       </c>
       <c r="H16" s="1">
-        <v>97500</v>
+        <v>78700</v>
       </c>
       <c r="I16" s="1">
-        <f>H16</f>
         <v>97500</v>
       </c>
       <c r="J16" s="1">
